--- a/_Doc/20221205/Commission.xlsx
+++ b/_Doc/20221205/Commission.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{CDFCDBC3-470E-4406-B50E-F54B8D50D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4061AD4F-32F1-441B-8CC0-CA6E9CF563EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB10F6-DD1E-4A00-BD8A-1B689CAA4C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>ชื่อคอมมิชชั่น</t>
   </si>
@@ -127,10 +116,35 @@
     <t>อันนี้ 10000 แรก จะ 1% เท่ากับ 100 ส่วนอีก 80000 เท่ากับ 2% = 1600 รวม 1700</t>
   </si>
   <si>
-    <t>อันนี้ 10000 แรก จะ 1% เท่ากับ 100 ส่วน 90000 เท่ากับ 2% = 1800 ส่วน 400000 เท่ากับ 3% =12000 รวม 13900</t>
-  </si>
-  <si>
     <t xml:space="preserve"> แบบนี้ครับ</t>
+  </si>
+  <si>
+    <t>คิดจากยอดขาย</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">อันนี้ 10000 แรก จะ 1% เท่ากับ 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ส่วน 90000 เท่ากับ 2% = 1800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ส่วน 400000 เท่ากับ 3% =12000 รวม 13900</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,28 +152,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +181,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +189,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +197,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -273,14 +294,14 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,11 +328,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -324,20 +347,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
-    <cellStyle name="เซลล์ตรวจสอบ" xfId="3" builtinId="23"/>
-    <cellStyle name="ดี" xfId="2" builtinId="26"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,8 +390,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>38639</xdr:rowOff>
     </xdr:to>
@@ -402,13 +430,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>751859</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -757,62 +785,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -832,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -849,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -866,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -883,30 +913,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -920,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -934,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -948,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>3</v>
       </c>
@@ -962,14 +992,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>19</v>
       </c>
@@ -980,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
@@ -995,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>18</v>
       </c>
@@ -1022,320 +1052,466 @@
         <v>15000</v>
       </c>
       <c r="D55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="F58" s="26">
+        <f>D58*E58</f>
+        <v>100</v>
+      </c>
+      <c r="G58" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F59" s="26">
+        <f>G59*E59</f>
+        <v>2000</v>
+      </c>
+      <c r="G59" s="28">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="2">
+        <v>100001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E60" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F60" s="26">
+        <f>G60*E60</f>
+        <v>11700</v>
+      </c>
+      <c r="G60" s="26">
+        <f>B58-G59-G58</f>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="F61" s="26">
+        <f>SUM(F58:F60)</f>
+        <v>13800</v>
+      </c>
+      <c r="G61" s="26">
+        <f>SUM(G58:G60)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23"/>
+      <c r="E94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="20"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>1</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B96" s="2">
         <v>100000</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C96" s="2">
         <v>200000</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E96" s="17">
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>2</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B97" s="2">
         <v>200001</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C97" s="2">
         <v>10000000</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D97" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D100" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B101" s="2">
         <v>100000</v>
       </c>
-      <c r="C87" s="2">
-        <f>(B87/B90) * 100</f>
+      <c r="C101" s="2">
+        <f>(B101/B104) * 100</f>
         <v>50</v>
       </c>
-      <c r="D87" s="2">
-        <f>B90*D82%</f>
+      <c r="D101" s="2">
+        <f>B104*D96%</f>
         <v>10000</v>
       </c>
-      <c r="E87" s="2">
-        <f>C87% * D87</f>
+      <c r="E101" s="2">
+        <f>C101% * D101</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B102" s="2">
         <v>50000</v>
       </c>
-      <c r="C88" s="2">
-        <f>(B88/B90) * 100</f>
+      <c r="C102" s="2">
+        <f>(B102/B104) * 100</f>
         <v>25</v>
       </c>
-      <c r="D88" s="2">
-        <f>B90*D82%</f>
+      <c r="D102" s="2">
+        <f>B104*D96%</f>
         <v>10000</v>
       </c>
-      <c r="E88" s="2">
-        <f t="shared" ref="E88:E89" si="1">C88% * D88</f>
+      <c r="E102" s="2">
+        <f t="shared" ref="E102:E103" si="1">C102% * D102</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B103" s="2">
         <v>50000</v>
       </c>
-      <c r="C89" s="2">
-        <f>(B89/B90) * 100</f>
+      <c r="C103" s="2">
+        <f>(B103/B104) * 100</f>
         <v>25</v>
       </c>
-      <c r="D89" s="2">
-        <f>B90*D82%</f>
+      <c r="D103" s="2">
+        <f>B104*D96%</f>
         <v>10000</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E103" s="2">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+    <row r="104" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="13">
-        <f>SUM(B87:B89)</f>
+      <c r="B104" s="13">
+        <f>SUM(B101:B103)</f>
         <v>200000</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13">
-        <f>SUM(E87:E89)</f>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13">
+        <f>SUM(E101:E103)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+    <row r="105" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B107" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>1</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B108" s="2">
         <v>500000</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C108" s="2">
         <v>9999999999</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D108" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B112" s="2">
         <v>300000</v>
       </c>
-      <c r="C98" s="2">
-        <f>(B98/B101) * 100</f>
+      <c r="C112" s="2">
+        <f>(B112/B115) * 100</f>
         <v>60</v>
       </c>
-      <c r="D98" s="2">
-        <f>B101*D94%</f>
+      <c r="D112" s="2">
+        <f>B115*D108%</f>
         <v>25000</v>
       </c>
-      <c r="E98" s="2">
-        <f>C98% * D98</f>
+      <c r="E112" s="2">
+        <f>C112% * D112</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B113" s="2">
         <v>100000</v>
       </c>
-      <c r="C99" s="2">
-        <f>(B99/B101) * 100</f>
+      <c r="C113" s="2">
+        <f>(B113/B115) * 100</f>
         <v>20</v>
       </c>
-      <c r="D99" s="2">
-        <f>B101*D94%</f>
+      <c r="D113" s="2">
+        <f>B115*D108%</f>
         <v>25000</v>
       </c>
-      <c r="E99" s="2">
-        <f t="shared" ref="E99:E100" si="2">C99% * D99</f>
+      <c r="E113" s="2">
+        <f t="shared" ref="E113:E114" si="2">C113% * D113</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B114" s="2">
         <v>100000</v>
       </c>
-      <c r="C100" s="2">
-        <f>(B100/B101) * 100</f>
+      <c r="C114" s="2">
+        <f>(B114/B115) * 100</f>
         <v>20</v>
       </c>
-      <c r="D100" s="2">
-        <f>B101*D94%</f>
+      <c r="D114" s="2">
+        <f>B115*D108%</f>
         <v>25000</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E114" s="2">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+    <row r="115" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="13">
-        <f>SUM(B98:B100)</f>
+      <c r="B115" s="13">
+        <f>SUM(B112:B114)</f>
         <v>500000</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13">
-        <f>SUM(E98:E100)</f>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13">
+        <f>SUM(E112:E114)</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A106:D106"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A94:D94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1351,7 +1527,7 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/_Doc/20221205/Commission.xlsx
+++ b/_Doc/20221205/Commission.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB10F6-DD1E-4A00-BD8A-1B689CAA4C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67972C5E-0A55-42D1-8CA3-AAB50A0FAB19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,6 +335,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -353,13 +360,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,44 +803,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -929,12 +929,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -1057,8 +1057,8 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -1096,110 +1096,110 @@
       <c r="D58" s="2">
         <v>10000</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="19">
         <v>0.01</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="20">
         <f>D58*E58</f>
         <v>100</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="21">
         <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
-      <c r="B59" s="24"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2">
         <v>10001</v>
       </c>
       <c r="D59" s="2">
         <v>100000</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="19">
         <v>0.02</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="20">
         <f>G59*E59</f>
         <v>2000</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="22">
         <v>100000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
-      <c r="B60" s="24"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2">
         <v>100001</v>
       </c>
       <c r="D60" s="2">
         <v>1000000</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="19">
         <v>0.03</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="20">
         <f>G60*E60</f>
         <v>11700</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="20">
         <f>B58-G59-G58</f>
         <v>390000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="F61" s="26">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="F61" s="20">
         <f>SUM(F58:F60)</f>
         <v>13800</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="20">
         <f>SUM(G58:G60)</f>
         <v>500000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
@@ -1215,12 +1215,12 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28"/>
       <c r="E94" t="s">
         <v>31</v>
       </c>
@@ -1369,12 +1369,12 @@
     </row>
     <row r="105" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="19"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">

--- a/_Doc/20221205/Commission.xlsx
+++ b/_Doc/20221205/Commission.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67972C5E-0A55-42D1-8CA3-AAB50A0FAB19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5425714C-E5E3-42E5-B818-256510F43A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,10 +1121,10 @@
       </c>
       <c r="F59" s="20">
         <f>G59*E59</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="22">
-        <v>100000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,11 +1141,11 @@
       </c>
       <c r="F60" s="20">
         <f>G60*E60</f>
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="G60" s="20">
         <f>B58-G59-G58</f>
-        <v>390000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
       <c r="C61" s="18"/>
       <c r="F61" s="20">
         <f>SUM(F58:F60)</f>
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="G61" s="20">
         <f>SUM(G58:G60)</f>
